--- a/pred_ohlcv/54_21/2019-11-13 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 QTUM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>4706.1664</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4214.5207</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3412.2007</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3357.2387</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3381.2758</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3381.2758</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3510.7658</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1453.131599999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1460.638099999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1412.055999999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-717.0559999999994</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-730.6684999999994</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-743.3747999999994</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1358.177599999999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1445.895599999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1410.295599999999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1086.6852</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-801.7173999999998</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1550.6816</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>950.6816000000001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>17505.6646</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17250.3413</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>16710.772</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>16840.772</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17750.4069</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>17794.4987</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20389.4226</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>21968.1998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22389.46475297</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>22199.46475297</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22257.46475297</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>22205.44175297</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>23074.72055297</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25555.09305297</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24693.86105297</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>25016.67295297</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>25016.67295297</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>25698.27495297</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>25698.27495297</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26414.11155297</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26414.11155297</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>26255.97935297</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30117.77085297</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>33460.43455296999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>79471.18785421998</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>81413.16275421999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>77901.29895421998</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>76130.02155421997</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>74570.77645421997</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>74901.47375421997</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>74175.94335421997</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>72354.10915421997</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>64789.35345421997</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>59321.06285421996</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>61232.94685421996</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>44749.14395272001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>52294.61635272</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>52296.615963</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>52159.000163</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>51377.049263</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>51782.349263</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>52113.049263</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>52123.149263</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>52312.779463</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>52476.779463</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 QTUM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>4706.1664</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4214.5207</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3412.2007</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3357.2387</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3377.2387</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3381.2758</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3381.2758</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3510.7658</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3520.7658</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3542.8892</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1453.131599999999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1460.638099999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1482.269399999999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1412.055999999999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-717.0559999999994</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-730.6684999999994</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-743.3747999999994</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-829.2927999999994</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1358.177599999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1445.895599999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1410.295599999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1475.007599999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1476.007599999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1086.6852</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-800.4222999999997</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-801.7173999999998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1550.6816</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>950.6816000000001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4189.2102</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4223.5271</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3802.5431</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4431.9316</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>17505.6646</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>17250.3413</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>16375.8159</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>16710.772</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>16840.772</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>16310.0972</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17750.4069</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>17794.4987</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>20389.4226</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>21968.1998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>22389.46475297</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>22199.46475297</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>22257.46475297</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>22205.44175297</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>23074.72055297</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>25555.09305297</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>24693.86105297</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>25016.67295297</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>25016.67295297</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>25698.27495297</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>25698.27495297</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26414.11155297</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26414.11155297</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>26255.97935297</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>30117.77085297</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>33460.43455296999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>55551.74655421999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>80138.52895421999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>79471.18785421998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>81413.16275421999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>77901.29895421998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>76130.02155421997</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>74570.77645421997</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>74901.47375421997</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>74175.94335421997</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>72354.10915421997</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>64789.35345421997</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>62485.90595421997</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>44749.14395272001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>52294.61635272</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>52296.615963</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>52159.000163</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>51377.049263</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>51782.349263</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>52113.049263</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>52123.149263</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>52312.779463</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>52476.779463</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
